--- a/data/TestscriptData.xlsx
+++ b/data/TestscriptData.xlsx
@@ -1,10 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9302"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="27527"/>
   <workbookPr defaultThemeVersion="124226"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Kiran S\git\Vtiger\data\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AF3AED0B-ABED-4D69-A157-DA93CB0148A0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="480" yWindow="345" windowWidth="19875" windowHeight="7725"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -16,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="47" uniqueCount="22">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="47" uniqueCount="23">
   <si>
     <t>TestId</t>
   </si>
@@ -60,9 +66,6 @@
     <t>contactName</t>
   </si>
   <si>
-    <t>piyush</t>
-  </si>
-  <si>
     <t>assignedTo</t>
   </si>
   <si>
@@ -82,12 +85,18 @@
   </si>
   <si>
     <t xml:space="preserve"> Administrator</t>
+  </si>
+  <si>
+    <t>PASS</t>
+  </si>
+  <si>
+    <t>TestContact</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="1" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -136,14 +145,17 @@
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
     </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
   </extLst>
 </styleSheet>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme 2007 - 2010">
   <a:themeElements>
-    <a:clrScheme name="Office">
+    <a:clrScheme name="Office 2007 - 2010">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -181,7 +193,7 @@
         <a:srgbClr val="800080"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office">
+    <a:fontScheme name="Office 2007 - 2010">
       <a:majorFont>
         <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
@@ -253,7 +265,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office">
+    <a:fmtScheme name="Office 2007 - 2010">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -426,11 +438,11 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:G14"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C15" sqref="C15"/>
+      <selection activeCell="C18" sqref="C18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -453,10 +465,10 @@
         <v>13</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="F1" s="1" t="s">
         <v>2</v>
@@ -470,10 +482,10 @@
         <v>8</v>
       </c>
       <c r="C2" t="s">
-        <v>14</v>
+        <v>22</v>
       </c>
       <c r="D2" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="E2" t="s">
         <v>21</v>
@@ -491,7 +503,7 @@
       </c>
       <c r="D4" s="1"/>
       <c r="E4" s="1" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="F4" s="1" t="s">
         <v>2</v>
@@ -505,10 +517,10 @@
         <v>9</v>
       </c>
       <c r="C5" t="s">
-        <v>14</v>
+        <v>22</v>
       </c>
       <c r="E5" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
     </row>
     <row r="6" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -524,7 +536,7 @@
       </c>
       <c r="D7" s="1"/>
       <c r="E7" s="1" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="F7" s="1" t="s">
         <v>2</v>
@@ -538,10 +550,10 @@
         <v>10</v>
       </c>
       <c r="C8" t="s">
-        <v>14</v>
+        <v>22</v>
       </c>
       <c r="E8" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.25">
@@ -556,7 +568,7 @@
       </c>
       <c r="D10" s="1"/>
       <c r="E10" s="1" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="F10" s="1" t="s">
         <v>2</v>
@@ -570,10 +582,10 @@
         <v>11</v>
       </c>
       <c r="C11" t="s">
-        <v>14</v>
+        <v>22</v>
       </c>
       <c r="E11" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
     </row>
     <row r="13" spans="1:6" x14ac:dyDescent="0.25">
@@ -588,7 +600,7 @@
       </c>
       <c r="D13" s="1"/>
       <c r="E13" s="1" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="F13" s="1" t="s">
         <v>2</v>
@@ -602,10 +614,10 @@
         <v>12</v>
       </c>
       <c r="C14" t="s">
-        <v>14</v>
+        <v>22</v>
       </c>
       <c r="E14" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
     </row>
   </sheetData>
@@ -614,7 +626,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
@@ -626,7 +638,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
